--- a/sdgs_subsahara_graph.xlsx
+++ b/sdgs_subsahara_graph.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="平均値" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="グラフ" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -135,36 +134,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="45472350" cy="28308300"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,37 +441,87 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>E. Europe &amp; C. Asia</t>
+          <t>goal1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>goal2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MENA</t>
+          <t>goal3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>goal4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OECD</t>
+          <t>goal5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>East &amp; South Asia</t>
+          <t>goal6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>goal7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>goal8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>goal9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>goal10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>goal11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>goal12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>goal13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>goal14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>goal15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>goal16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>goal17</t>
         </is>
       </c>
     </row>
@@ -511,25 +530,55 @@
         <v>2000</v>
       </c>
       <c r="B2" t="n">
-        <v>64.51451237260183</v>
+        <v>26.337825</v>
       </c>
       <c r="C2" t="n">
-        <v>48.79762435115178</v>
+        <v>47.02055183747412</v>
       </c>
       <c r="D2" t="n">
-        <v>59.26086101907692</v>
+        <v>26.09379849498328</v>
       </c>
       <c r="E2" t="n">
-        <v>60.64408706361797</v>
+        <v>35.71729375</v>
       </c>
       <c r="F2" t="n">
-        <v>73.31870958062669</v>
+        <v>34.72105434782608</v>
       </c>
       <c r="G2" t="n">
-        <v>57.12086226172134</v>
+        <v>45.57366739130435</v>
       </c>
       <c r="H2" t="n">
-        <v>58.69427241704373</v>
+        <v>25.19320652173913</v>
+      </c>
+      <c r="I2" t="n">
+        <v>62.48306371635609</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.23526455026455</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41.58673255813954</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52.95404347826087</v>
+      </c>
+      <c r="M2" t="n">
+        <v>94.02187437888199</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.29583695652177</v>
+      </c>
+      <c r="O2" t="n">
+        <v>60.23051333333333</v>
+      </c>
+      <c r="P2" t="n">
+        <v>61.66461231884058</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>51.23961048058222</v>
+      </c>
+      <c r="R2" t="n">
+        <v>52.19066485507246</v>
       </c>
     </row>
     <row r="3">
@@ -537,25 +586,55 @@
         <v>2001</v>
       </c>
       <c r="B3" t="n">
-        <v>64.88599378187882</v>
+        <v>27.0537</v>
       </c>
       <c r="C3" t="n">
-        <v>49.01436501459557</v>
+        <v>47.13418379917184</v>
       </c>
       <c r="D3" t="n">
-        <v>59.43445426890308</v>
+        <v>26.60364835164835</v>
       </c>
       <c r="E3" t="n">
-        <v>60.88291246084291</v>
+        <v>36.23188958333334</v>
       </c>
       <c r="F3" t="n">
-        <v>73.59170316275032</v>
+        <v>35.17370108695651</v>
       </c>
       <c r="G3" t="n">
-        <v>57.32182095682525</v>
+        <v>45.74707826086956</v>
       </c>
       <c r="H3" t="n">
-        <v>58.44442745098039</v>
+        <v>25.61008695652174</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62.39598545548655</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.26107936507937</v>
+      </c>
+      <c r="K3" t="n">
+        <v>41.58673255813954</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53.14984782608695</v>
+      </c>
+      <c r="M3" t="n">
+        <v>93.99559932712216</v>
+      </c>
+      <c r="N3" t="n">
+        <v>97.28857246376812</v>
+      </c>
+      <c r="O3" t="n">
+        <v>60.93492611111112</v>
+      </c>
+      <c r="P3" t="n">
+        <v>61.74907536231883</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>51.18922953761216</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52.13886920289855</v>
       </c>
     </row>
     <row r="4">
@@ -563,25 +642,55 @@
         <v>2002</v>
       </c>
       <c r="B4" t="n">
-        <v>65.70498698813974</v>
+        <v>27.05503658536585</v>
       </c>
       <c r="C4" t="n">
-        <v>49.17164258487463</v>
+        <v>46.7957620600414</v>
       </c>
       <c r="D4" t="n">
-        <v>59.54135650874861</v>
+        <v>27.34131569517438</v>
       </c>
       <c r="E4" t="n">
-        <v>61.0325910080738</v>
+        <v>34.97613690476191</v>
       </c>
       <c r="F4" t="n">
-        <v>73.92667588305858</v>
+        <v>35.73516847826087</v>
       </c>
       <c r="G4" t="n">
-        <v>57.75565196020224</v>
+        <v>46.26942934782608</v>
       </c>
       <c r="H4" t="n">
-        <v>58.62126938967896</v>
+        <v>26.37601086956522</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62.29471909937888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.29784867724868</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.58673255813954</v>
+      </c>
+      <c r="L4" t="n">
+        <v>53.56248369565216</v>
+      </c>
+      <c r="M4" t="n">
+        <v>94.10026557971013</v>
+      </c>
+      <c r="N4" t="n">
+        <v>97.32991304347827</v>
+      </c>
+      <c r="O4" t="n">
+        <v>61.40891833333333</v>
+      </c>
+      <c r="P4" t="n">
+        <v>62.51142826086956</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>51.22907902942468</v>
+      </c>
+      <c r="R4" t="n">
+        <v>52.04767572463768</v>
       </c>
     </row>
     <row r="5">
@@ -589,25 +698,55 @@
         <v>2003</v>
       </c>
       <c r="B5" t="n">
-        <v>65.86821792921486</v>
+        <v>26.3944756097561</v>
       </c>
       <c r="C5" t="n">
-        <v>49.40954680532531</v>
+        <v>47.02985841097308</v>
       </c>
       <c r="D5" t="n">
-        <v>59.77788778321352</v>
+        <v>28.07765623506927</v>
       </c>
       <c r="E5" t="n">
-        <v>61.29845637368457</v>
+        <v>35.92486507936509</v>
       </c>
       <c r="F5" t="n">
-        <v>73.86501374149857</v>
+        <v>36.41384239130435</v>
       </c>
       <c r="G5" t="n">
-        <v>58.12237288377772</v>
+        <v>46.35395108695652</v>
       </c>
       <c r="H5" t="n">
-        <v>58.46739297295842</v>
+        <v>26.67852717391304</v>
+      </c>
+      <c r="I5" t="n">
+        <v>62.27793090062111</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.34079047619048</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.58673255813954</v>
+      </c>
+      <c r="L5" t="n">
+        <v>54.01414673913045</v>
+      </c>
+      <c r="M5" t="n">
+        <v>93.93074849896482</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97.18072101449276</v>
+      </c>
+      <c r="O5" t="n">
+        <v>62.29583111111113</v>
+      </c>
+      <c r="P5" t="n">
+        <v>62.74459637681159</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>51.23865028860029</v>
+      </c>
+      <c r="R5" t="n">
+        <v>52.47897173913045</v>
       </c>
     </row>
     <row r="6">
@@ -615,25 +754,55 @@
         <v>2004</v>
       </c>
       <c r="B6" t="n">
-        <v>66.18124906014702</v>
+        <v>26.94937804878049</v>
       </c>
       <c r="C6" t="n">
-        <v>49.62362769416515</v>
+        <v>46.91405864389235</v>
       </c>
       <c r="D6" t="n">
-        <v>60.02748858695431</v>
+        <v>28.87928033922599</v>
       </c>
       <c r="E6" t="n">
-        <v>61.79533726124393</v>
+        <v>36.99226190476191</v>
       </c>
       <c r="F6" t="n">
-        <v>74.3204704965692</v>
+        <v>37.3481304347826</v>
       </c>
       <c r="G6" t="n">
-        <v>58.36153748172192</v>
+        <v>46.52199782608695</v>
       </c>
       <c r="H6" t="n">
-        <v>58.36862403846154</v>
+        <v>27.09759239130434</v>
+      </c>
+      <c r="I6" t="n">
+        <v>62.33401832298137</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.38534497354498</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40.73212790697675</v>
+      </c>
+      <c r="L6" t="n">
+        <v>53.6850561594203</v>
+      </c>
+      <c r="M6" t="n">
+        <v>93.94286754658387</v>
+      </c>
+      <c r="N6" t="n">
+        <v>97.12640579710146</v>
+      </c>
+      <c r="O6" t="n">
+        <v>62.319695</v>
+      </c>
+      <c r="P6" t="n">
+        <v>63.41059492753624</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>51.23354173724826</v>
+      </c>
+      <c r="R6" t="n">
+        <v>52.72931884057971</v>
       </c>
     </row>
     <row r="7">
@@ -641,25 +810,55 @@
         <v>2005</v>
       </c>
       <c r="B7" t="n">
-        <v>66.36413022101513</v>
+        <v>27.60798780487805</v>
       </c>
       <c r="C7" t="n">
-        <v>50.09630361279729</v>
+        <v>47.32104252070393</v>
       </c>
       <c r="D7" t="n">
-        <v>60.62957874284622</v>
+        <v>29.73753129479217</v>
       </c>
       <c r="E7" t="n">
-        <v>62.20349204370843</v>
+        <v>36.95989341085271</v>
       </c>
       <c r="F7" t="n">
-        <v>74.58804305078438</v>
+        <v>37.81648369565217</v>
       </c>
       <c r="G7" t="n">
-        <v>58.86662316325143</v>
+        <v>47.13648152173914</v>
       </c>
       <c r="H7" t="n">
-        <v>58.69939029034691</v>
+        <v>27.87139130434783</v>
+      </c>
+      <c r="I7" t="n">
+        <v>62.36072360248447</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.4152216931217</v>
+      </c>
+      <c r="K7" t="n">
+        <v>42.63402380952381</v>
+      </c>
+      <c r="L7" t="n">
+        <v>54.00158514492755</v>
+      </c>
+      <c r="M7" t="n">
+        <v>93.87187075569358</v>
+      </c>
+      <c r="N7" t="n">
+        <v>97.09021739130434</v>
+      </c>
+      <c r="O7" t="n">
+        <v>63.86445000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>63.75748768115943</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>51.25757014869189</v>
+      </c>
+      <c r="R7" t="n">
+        <v>52.93319963768118</v>
       </c>
     </row>
     <row r="8">
@@ -667,25 +866,55 @@
         <v>2006</v>
       </c>
       <c r="B8" t="n">
-        <v>66.66923724517171</v>
+        <v>28.07966666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>50.6231562331244</v>
+        <v>47.63333628364389</v>
       </c>
       <c r="D8" t="n">
-        <v>60.71289729991209</v>
+        <v>30.68160093167702</v>
       </c>
       <c r="E8" t="n">
-        <v>62.50821758112047</v>
+        <v>37.95585658914729</v>
       </c>
       <c r="F8" t="n">
-        <v>74.72680383406956</v>
+        <v>39.13240217391304</v>
       </c>
       <c r="G8" t="n">
-        <v>59.14922081527176</v>
+        <v>47.35419239130434</v>
       </c>
       <c r="H8" t="n">
-        <v>58.88334066472743</v>
+        <v>28.57411413043478</v>
+      </c>
+      <c r="I8" t="n">
+        <v>62.41412681159421</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.49468835978836</v>
+      </c>
+      <c r="K8" t="n">
+        <v>42.70734523809524</v>
+      </c>
+      <c r="L8" t="n">
+        <v>55.48790760869564</v>
+      </c>
+      <c r="M8" t="n">
+        <v>93.89167862318841</v>
+      </c>
+      <c r="N8" t="n">
+        <v>97.10113768115939</v>
+      </c>
+      <c r="O8" t="n">
+        <v>64.43957277777778</v>
+      </c>
+      <c r="P8" t="n">
+        <v>65.29027934782609</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>51.37243368153586</v>
+      </c>
+      <c r="R8" t="n">
+        <v>52.98331666666667</v>
       </c>
     </row>
     <row r="9">
@@ -693,25 +922,55 @@
         <v>2007</v>
       </c>
       <c r="B9" t="n">
-        <v>67.05199002412762</v>
+        <v>29.24242857142858</v>
       </c>
       <c r="C9" t="n">
-        <v>50.84884850566348</v>
+        <v>47.8502483436853</v>
       </c>
       <c r="D9" t="n">
-        <v>60.93920043158434</v>
+        <v>31.66937804586717</v>
       </c>
       <c r="E9" t="n">
-        <v>62.86176379495879</v>
+        <v>38.70518604651163</v>
       </c>
       <c r="F9" t="n">
-        <v>74.79800472789596</v>
+        <v>39.74175</v>
       </c>
       <c r="G9" t="n">
-        <v>59.60758603721829</v>
+        <v>47.68221304347826</v>
       </c>
       <c r="H9" t="n">
-        <v>58.98640936759319</v>
+        <v>29.19773369565217</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62.47308876811596</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.58435343915344</v>
+      </c>
+      <c r="K9" t="n">
+        <v>43.6592619047619</v>
+      </c>
+      <c r="L9" t="n">
+        <v>53.98026992753625</v>
+      </c>
+      <c r="M9" t="n">
+        <v>93.75402738095238</v>
+      </c>
+      <c r="N9" t="n">
+        <v>96.94869565217388</v>
+      </c>
+      <c r="O9" t="n">
+        <v>64.26136166666667</v>
+      </c>
+      <c r="P9" t="n">
+        <v>65.4769786231884</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>51.23372086391871</v>
+      </c>
+      <c r="R9" t="n">
+        <v>52.96972862318841</v>
       </c>
     </row>
     <row r="10">
@@ -719,25 +978,55 @@
         <v>2008</v>
       </c>
       <c r="B10" t="n">
-        <v>67.52776078605964</v>
+        <v>30.42371428571429</v>
       </c>
       <c r="C10" t="n">
-        <v>51.12269450380089</v>
+        <v>48.09025960144929</v>
       </c>
       <c r="D10" t="n">
-        <v>61.09169760564191</v>
+        <v>32.70317606306737</v>
       </c>
       <c r="E10" t="n">
-        <v>63.30391911428466</v>
+        <v>37.68072592592593</v>
       </c>
       <c r="F10" t="n">
-        <v>75.18620023377628</v>
+        <v>40.46335869565218</v>
       </c>
       <c r="G10" t="n">
-        <v>60.02364987313512</v>
+        <v>48.04025652173913</v>
       </c>
       <c r="H10" t="n">
-        <v>58.77658407401422</v>
+        <v>29.522</v>
+      </c>
+      <c r="I10" t="n">
+        <v>62.54609073498965</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15.6974164021164</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44.51896428571428</v>
+      </c>
+      <c r="L10" t="n">
+        <v>54.52478623188406</v>
+      </c>
+      <c r="M10" t="n">
+        <v>93.67351858178054</v>
+      </c>
+      <c r="N10" t="n">
+        <v>96.83406159420291</v>
+      </c>
+      <c r="O10" t="n">
+        <v>64.17248166666666</v>
+      </c>
+      <c r="P10" t="n">
+        <v>65.84952862318841</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>51.1997550316833</v>
+      </c>
+      <c r="R10" t="n">
+        <v>53.14571231884059</v>
       </c>
     </row>
     <row r="11">
@@ -745,25 +1034,55 @@
         <v>2009</v>
       </c>
       <c r="B11" t="n">
-        <v>68.20880294407213</v>
+        <v>30.73243023255813</v>
       </c>
       <c r="C11" t="n">
-        <v>51.34388639380257</v>
+        <v>48.56062758799172</v>
       </c>
       <c r="D11" t="n">
-        <v>61.66720186292466</v>
+        <v>33.49207310081223</v>
       </c>
       <c r="E11" t="n">
-        <v>63.75563372515104</v>
+        <v>38.27267777777779</v>
       </c>
       <c r="F11" t="n">
-        <v>75.86763708041107</v>
+        <v>40.85346739130435</v>
       </c>
       <c r="G11" t="n">
-        <v>60.57049877790296</v>
+        <v>48.46294891304348</v>
       </c>
       <c r="H11" t="n">
-        <v>58.87687409771601</v>
+        <v>29.83091847826087</v>
+      </c>
+      <c r="I11" t="n">
+        <v>62.45276019668738</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15.84563386243386</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.40944318181818</v>
+      </c>
+      <c r="L11" t="n">
+        <v>55.62796739130434</v>
+      </c>
+      <c r="M11" t="n">
+        <v>93.62560377846791</v>
+      </c>
+      <c r="N11" t="n">
+        <v>96.74665579710145</v>
+      </c>
+      <c r="O11" t="n">
+        <v>64.51934555555555</v>
+      </c>
+      <c r="P11" t="n">
+        <v>66.05408152173912</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>51.31877269590314</v>
+      </c>
+      <c r="R11" t="n">
+        <v>53.04066123188406</v>
       </c>
     </row>
     <row r="12">
@@ -771,25 +1090,55 @@
         <v>2010</v>
       </c>
       <c r="B12" t="n">
-        <v>68.51897260729467</v>
+        <v>31.76729069767442</v>
       </c>
       <c r="C12" t="n">
-        <v>51.73006273880889</v>
+        <v>49.54415750517597</v>
       </c>
       <c r="D12" t="n">
-        <v>62.19377204299991</v>
+        <v>34.86583050645007</v>
       </c>
       <c r="E12" t="n">
-        <v>64.05666288822171</v>
+        <v>38.36808333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>76.0014713557169</v>
+        <v>41.67265217391305</v>
       </c>
       <c r="G12" t="n">
-        <v>61.2742315742638</v>
+        <v>48.73164456521739</v>
       </c>
       <c r="H12" t="n">
-        <v>58.51647715201466</v>
+        <v>30.22246739130435</v>
+      </c>
+      <c r="I12" t="n">
+        <v>62.48774368530022</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.17018465608466</v>
+      </c>
+      <c r="K12" t="n">
+        <v>42.11422727272726</v>
+      </c>
+      <c r="L12" t="n">
+        <v>55.92072826086957</v>
+      </c>
+      <c r="M12" t="n">
+        <v>93.59775289855072</v>
+      </c>
+      <c r="N12" t="n">
+        <v>96.80222463768116</v>
+      </c>
+      <c r="O12" t="n">
+        <v>64.87579888888889</v>
+      </c>
+      <c r="P12" t="n">
+        <v>67.1398329710145</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>51.70624675324675</v>
+      </c>
+      <c r="R12" t="n">
+        <v>53.42420036231884</v>
       </c>
     </row>
     <row r="13">
@@ -797,25 +1146,55 @@
         <v>2011</v>
       </c>
       <c r="B13" t="n">
-        <v>68.97789137716504</v>
+        <v>31.87747727272728</v>
       </c>
       <c r="C13" t="n">
-        <v>51.99741368336434</v>
+        <v>49.5298853778468</v>
       </c>
       <c r="D13" t="n">
-        <v>62.60234502246121</v>
+        <v>36.06605697563307</v>
       </c>
       <c r="E13" t="n">
-        <v>64.42531660985823</v>
+        <v>39.62784601449275</v>
       </c>
       <c r="F13" t="n">
-        <v>76.24833753297629</v>
+        <v>42.34570108695652</v>
       </c>
       <c r="G13" t="n">
-        <v>61.61816041399735</v>
+        <v>48.95644456521738</v>
       </c>
       <c r="H13" t="n">
-        <v>58.73585513089852</v>
+        <v>30.52553804347826</v>
+      </c>
+      <c r="I13" t="n">
+        <v>62.50505253623189</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16.59936878306878</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.93703409090909</v>
+      </c>
+      <c r="L13" t="n">
+        <v>55.72567391304349</v>
+      </c>
+      <c r="M13" t="n">
+        <v>93.57234922360247</v>
+      </c>
+      <c r="N13" t="n">
+        <v>96.73776086956522</v>
+      </c>
+      <c r="O13" t="n">
+        <v>65.13242555555556</v>
+      </c>
+      <c r="P13" t="n">
+        <v>67.20527789855073</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>51.87407591756071</v>
+      </c>
+      <c r="R13" t="n">
+        <v>53.73806449275362</v>
       </c>
     </row>
     <row r="14">
@@ -823,25 +1202,55 @@
         <v>2012</v>
       </c>
       <c r="B14" t="n">
-        <v>69.42084808969801</v>
+        <v>33.170875</v>
       </c>
       <c r="C14" t="n">
-        <v>52.36551655596014</v>
+        <v>50.43401110248448</v>
       </c>
       <c r="D14" t="n">
-        <v>62.91271762547093</v>
+        <v>37.09183815097946</v>
       </c>
       <c r="E14" t="n">
-        <v>65.00356425199301</v>
+        <v>40.112</v>
       </c>
       <c r="F14" t="n">
-        <v>76.68557724269122</v>
+        <v>42.87445652173913</v>
       </c>
       <c r="G14" t="n">
-        <v>62.08535559605299</v>
+        <v>49.03723913043478</v>
       </c>
       <c r="H14" t="n">
-        <v>58.87418172538246</v>
+        <v>31.03652717391305</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.64960476190477</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18.17217407407407</v>
+      </c>
+      <c r="K14" t="n">
+        <v>42.01347727272727</v>
+      </c>
+      <c r="L14" t="n">
+        <v>56.34266304347825</v>
+      </c>
+      <c r="M14" t="n">
+        <v>93.1243144409938</v>
+      </c>
+      <c r="N14" t="n">
+        <v>96.51127173913044</v>
+      </c>
+      <c r="O14" t="n">
+        <v>64.77580666666667</v>
+      </c>
+      <c r="P14" t="n">
+        <v>67.28538442028984</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>51.87072889453543</v>
+      </c>
+      <c r="R14" t="n">
+        <v>53.71140905797102</v>
       </c>
     </row>
     <row r="15">
@@ -849,25 +1258,55 @@
         <v>2013</v>
       </c>
       <c r="B15" t="n">
-        <v>69.91288560244105</v>
+        <v>34.48826136363636</v>
       </c>
       <c r="C15" t="n">
-        <v>52.70556189771155</v>
+        <v>50.29810548654245</v>
       </c>
       <c r="D15" t="n">
-        <v>63.07554356331985</v>
+        <v>37.48631163401815</v>
       </c>
       <c r="E15" t="n">
-        <v>65.11335048936196</v>
+        <v>41.14039492753624</v>
       </c>
       <c r="F15" t="n">
-        <v>76.76253010784149</v>
+        <v>44.14402173913044</v>
       </c>
       <c r="G15" t="n">
-        <v>62.54990636226303</v>
+        <v>49.68875326086956</v>
       </c>
       <c r="H15" t="n">
-        <v>59.83473549073476</v>
+        <v>31.61707608695652</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61.86818260869564</v>
+      </c>
+      <c r="J15" t="n">
+        <v>19.23157142857143</v>
+      </c>
+      <c r="K15" t="n">
+        <v>41.79638636363636</v>
+      </c>
+      <c r="L15" t="n">
+        <v>57.14574275362318</v>
+      </c>
+      <c r="M15" t="n">
+        <v>93.33782613871635</v>
+      </c>
+      <c r="N15" t="n">
+        <v>96.48947826086957</v>
+      </c>
+      <c r="O15" t="n">
+        <v>65.06391722222223</v>
+      </c>
+      <c r="P15" t="n">
+        <v>67.37437246376813</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>51.16484798607189</v>
+      </c>
+      <c r="R15" t="n">
+        <v>53.65930253623189</v>
       </c>
     </row>
     <row r="16">
@@ -875,25 +1314,55 @@
         <v>2014</v>
       </c>
       <c r="B16" t="n">
-        <v>70.26589049958993</v>
+        <v>34.78289772727273</v>
       </c>
       <c r="C16" t="n">
-        <v>53.30011608940648</v>
+        <v>50.84762008281573</v>
       </c>
       <c r="D16" t="n">
-        <v>63.51712442204445</v>
+        <v>38.26614608217869</v>
       </c>
       <c r="E16" t="n">
-        <v>65.83147443140372</v>
+        <v>42.14688224637682</v>
       </c>
       <c r="F16" t="n">
-        <v>77.16073931653897</v>
+        <v>45.42665760869566</v>
       </c>
       <c r="G16" t="n">
-        <v>63.3872609967939</v>
+        <v>50.16525869565218</v>
       </c>
       <c r="H16" t="n">
-        <v>60.13070933796594</v>
+        <v>32.32371739130434</v>
+      </c>
+      <c r="I16" t="n">
+        <v>63.12677805383024</v>
+      </c>
+      <c r="J16" t="n">
+        <v>20.02977329192547</v>
+      </c>
+      <c r="K16" t="n">
+        <v>42.30282954545454</v>
+      </c>
+      <c r="L16" t="n">
+        <v>58.45879528985506</v>
+      </c>
+      <c r="M16" t="n">
+        <v>93.37506050724637</v>
+      </c>
+      <c r="N16" t="n">
+        <v>96.60137681159422</v>
+      </c>
+      <c r="O16" t="n">
+        <v>65.92948666666666</v>
+      </c>
+      <c r="P16" t="n">
+        <v>67.34507898550724</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>51.3050456929544</v>
+      </c>
+      <c r="R16" t="n">
+        <v>53.66856884057972</v>
       </c>
     </row>
     <row r="17">
@@ -901,25 +1370,55 @@
         <v>2015</v>
       </c>
       <c r="B17" t="n">
-        <v>70.62480962903254</v>
+        <v>36.19826136363636</v>
       </c>
       <c r="C17" t="n">
-        <v>53.65482698691689</v>
+        <v>50.30782078157351</v>
       </c>
       <c r="D17" t="n">
-        <v>63.5244097621639</v>
+        <v>39.48960212613474</v>
       </c>
       <c r="E17" t="n">
-        <v>66.13269612507997</v>
+        <v>42.14303079710145</v>
       </c>
       <c r="F17" t="n">
-        <v>77.44970161044398</v>
+        <v>45.97969565217392</v>
       </c>
       <c r="G17" t="n">
-        <v>63.98357437342628</v>
+        <v>50.60770760869565</v>
       </c>
       <c r="H17" t="n">
-        <v>60.07734445432018</v>
+        <v>33.41680978260869</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63.1737787784679</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.34080486542443</v>
+      </c>
+      <c r="K17" t="n">
+        <v>44.23997727272727</v>
+      </c>
+      <c r="L17" t="n">
+        <v>56.58478623188405</v>
+      </c>
+      <c r="M17" t="n">
+        <v>93.48741801242235</v>
+      </c>
+      <c r="N17" t="n">
+        <v>96.66827173913045</v>
+      </c>
+      <c r="O17" t="n">
+        <v>66.57152000000001</v>
+      </c>
+      <c r="P17" t="n">
+        <v>67.43377644927536</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>51.49839333082377</v>
+      </c>
+      <c r="R17" t="n">
+        <v>52.99040398550724</v>
       </c>
     </row>
     <row r="18">
@@ -927,25 +1426,55 @@
         <v>2016</v>
       </c>
       <c r="B18" t="n">
-        <v>71.0664554760031</v>
+        <v>37.56559302325581</v>
       </c>
       <c r="C18" t="n">
-        <v>54.09310785272479</v>
+        <v>50.0292477484472</v>
       </c>
       <c r="D18" t="n">
-        <v>63.74351570688298</v>
+        <v>40.30073936932634</v>
       </c>
       <c r="E18" t="n">
-        <v>66.2838951690408</v>
+        <v>43.1824311594203</v>
       </c>
       <c r="F18" t="n">
-        <v>77.55500522403032</v>
+        <v>46.22405978260869</v>
       </c>
       <c r="G18" t="n">
-        <v>64.48536035380771</v>
+        <v>51.03802391304349</v>
       </c>
       <c r="H18" t="n">
-        <v>60.15077201034261</v>
+        <v>34.1944402173913</v>
+      </c>
+      <c r="I18" t="n">
+        <v>63.16716273291927</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22.77597826086956</v>
+      </c>
+      <c r="K18" t="n">
+        <v>44.14352272727273</v>
+      </c>
+      <c r="L18" t="n">
+        <v>58.02234601449275</v>
+      </c>
+      <c r="M18" t="n">
+        <v>93.46229296066254</v>
+      </c>
+      <c r="N18" t="n">
+        <v>96.71907971014494</v>
+      </c>
+      <c r="O18" t="n">
+        <v>67.30430333333334</v>
+      </c>
+      <c r="P18" t="n">
+        <v>67.43389166666667</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>51.1371063837129</v>
+      </c>
+      <c r="R18" t="n">
+        <v>52.88261449275362</v>
       </c>
     </row>
     <row r="19">
@@ -953,25 +1482,55 @@
         <v>2017</v>
       </c>
       <c r="B19" t="n">
-        <v>71.46672096209419</v>
+        <v>38.39244186046511</v>
       </c>
       <c r="C19" t="n">
-        <v>54.64847025406078</v>
+        <v>50.31231643374741</v>
       </c>
       <c r="D19" t="n">
-        <v>63.95956380795469</v>
+        <v>41.70507095078834</v>
       </c>
       <c r="E19" t="n">
-        <v>66.80807330299835</v>
+        <v>43.80523188405796</v>
       </c>
       <c r="F19" t="n">
-        <v>77.72044108783913</v>
+        <v>46.90279347826087</v>
       </c>
       <c r="G19" t="n">
-        <v>65.25462254081401</v>
+        <v>51.32969565217392</v>
       </c>
       <c r="H19" t="n">
-        <v>61.08029998383969</v>
+        <v>34.38495652173913</v>
+      </c>
+      <c r="I19" t="n">
+        <v>64.75298359213251</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24.24456366459627</v>
+      </c>
+      <c r="K19" t="n">
+        <v>44.29821590909091</v>
+      </c>
+      <c r="L19" t="n">
+        <v>58.22249818840581</v>
+      </c>
+      <c r="M19" t="n">
+        <v>93.4530079710145</v>
+      </c>
+      <c r="N19" t="n">
+        <v>96.83004347826089</v>
+      </c>
+      <c r="O19" t="n">
+        <v>67.44718222222224</v>
+      </c>
+      <c r="P19" t="n">
+        <v>67.78515688405797</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>51.08796859903382</v>
+      </c>
+      <c r="R19" t="n">
+        <v>54.06986702898551</v>
       </c>
     </row>
     <row r="20">
@@ -979,25 +1538,55 @@
         <v>2018</v>
       </c>
       <c r="B20" t="n">
-        <v>71.81176007428205</v>
+        <v>38.32977272727272</v>
       </c>
       <c r="C20" t="n">
-        <v>55.0995626398275</v>
+        <v>50.78989293478261</v>
       </c>
       <c r="D20" t="n">
-        <v>64.36402053615299</v>
+        <v>42.76912959866222</v>
       </c>
       <c r="E20" t="n">
-        <v>67.1312074307765</v>
+        <v>44.29458514492754</v>
       </c>
       <c r="F20" t="n">
-        <v>77.79763097736233</v>
+        <v>47.54647826086957</v>
       </c>
       <c r="G20" t="n">
-        <v>65.60047831564806</v>
+        <v>51.7242847826087</v>
       </c>
       <c r="H20" t="n">
-        <v>61.16704411764705</v>
+        <v>35.60555434782609</v>
+      </c>
+      <c r="I20" t="n">
+        <v>64.82940051759836</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25.01165734989648</v>
+      </c>
+      <c r="K20" t="n">
+        <v>45.91298863636364</v>
+      </c>
+      <c r="L20" t="n">
+        <v>59.2653079710145</v>
+      </c>
+      <c r="M20" t="n">
+        <v>93.47528938923395</v>
+      </c>
+      <c r="N20" t="n">
+        <v>96.86053260869565</v>
+      </c>
+      <c r="O20" t="n">
+        <v>67.28100999999999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>67.79645108695652</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>51.11008133195307</v>
+      </c>
+      <c r="R20" t="n">
+        <v>54.09014818840579</v>
       </c>
     </row>
     <row r="21">
@@ -1005,25 +1594,55 @@
         <v>2019</v>
       </c>
       <c r="B21" t="n">
-        <v>72.35523101693701</v>
+        <v>38.55864772727274</v>
       </c>
       <c r="C21" t="n">
-        <v>55.3158259879819</v>
+        <v>50.90585067287784</v>
       </c>
       <c r="D21" t="n">
-        <v>64.91548717183551</v>
+        <v>43.66635905398949</v>
       </c>
       <c r="E21" t="n">
-        <v>67.22880094591982</v>
+        <v>45.10961231884058</v>
       </c>
       <c r="F21" t="n">
-        <v>78.24436385955323</v>
+        <v>48.15528804347825</v>
       </c>
       <c r="G21" t="n">
-        <v>66.16295165999463</v>
+        <v>52.01580326086956</v>
       </c>
       <c r="H21" t="n">
-        <v>62.14472459868563</v>
+        <v>35.62498913043478</v>
+      </c>
+      <c r="I21" t="n">
+        <v>64.82322479296066</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26.15730900621118</v>
+      </c>
+      <c r="K21" t="n">
+        <v>46.50836363636363</v>
+      </c>
+      <c r="L21" t="n">
+        <v>59.34228442028985</v>
+      </c>
+      <c r="M21" t="n">
+        <v>93.44633053830228</v>
+      </c>
+      <c r="N21" t="n">
+        <v>96.8637536231884</v>
+      </c>
+      <c r="O21" t="n">
+        <v>66.62524111111112</v>
+      </c>
+      <c r="P21" t="n">
+        <v>66.93809311594204</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>51.25151851747286</v>
+      </c>
+      <c r="R21" t="n">
+        <v>54.37637282608698</v>
       </c>
     </row>
     <row r="22">
@@ -1031,25 +1650,55 @@
         <v>2020</v>
       </c>
       <c r="B22" t="n">
-        <v>72.76997255440638</v>
+        <v>37.58275</v>
       </c>
       <c r="C22" t="n">
-        <v>55.55037472387943</v>
+        <v>50.96153157349897</v>
       </c>
       <c r="D22" t="n">
-        <v>65.51047288351968</v>
+        <v>43.83046619684664</v>
       </c>
       <c r="E22" t="n">
-        <v>67.35789239599268</v>
+        <v>45.4811811594203</v>
       </c>
       <c r="F22" t="n">
-        <v>78.74418031319259</v>
+        <v>48.90146739130435</v>
       </c>
       <c r="G22" t="n">
-        <v>66.72731466703746</v>
+        <v>52.38397717391304</v>
       </c>
       <c r="H22" t="n">
-        <v>62.23860781081663</v>
+        <v>36.76409239130435</v>
+      </c>
+      <c r="I22" t="n">
+        <v>64.05256185300206</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27.77542236024845</v>
+      </c>
+      <c r="K22" t="n">
+        <v>46.5087840909091</v>
+      </c>
+      <c r="L22" t="n">
+        <v>59.43764673913044</v>
+      </c>
+      <c r="M22" t="n">
+        <v>93.55394306418221</v>
+      </c>
+      <c r="N22" t="n">
+        <v>97.06947101449278</v>
+      </c>
+      <c r="O22" t="n">
+        <v>66.63068555555556</v>
+      </c>
+      <c r="P22" t="n">
+        <v>66.90723115942028</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>51.13289880011293</v>
+      </c>
+      <c r="R22" t="n">
+        <v>55.38225978260869</v>
       </c>
     </row>
     <row r="23">
@@ -1057,25 +1706,55 @@
         <v>2021</v>
       </c>
       <c r="B23" t="n">
-        <v>72.91086228224036</v>
+        <v>38.85406818181819</v>
       </c>
       <c r="C23" t="n">
-        <v>56.11793563450617</v>
+        <v>50.76996749482402</v>
       </c>
       <c r="D23" t="n">
-        <v>65.59025305214597</v>
+        <v>45.86104526994745</v>
       </c>
       <c r="E23" t="n">
-        <v>67.52290330972706</v>
+        <v>45.44636050724637</v>
       </c>
       <c r="F23" t="n">
-        <v>78.74280023205498</v>
+        <v>49.72875543478261</v>
       </c>
       <c r="G23" t="n">
-        <v>66.92979757771596</v>
+        <v>52.78577717391304</v>
       </c>
       <c r="H23" t="n">
-        <v>62.135072656755</v>
+        <v>36.99460869565218</v>
+      </c>
+      <c r="I23" t="n">
+        <v>64.51503623188407</v>
+      </c>
+      <c r="J23" t="n">
+        <v>28.89539544513457</v>
+      </c>
+      <c r="K23" t="n">
+        <v>48.70785227272729</v>
+      </c>
+      <c r="L23" t="n">
+        <v>59.6419945652174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>93.50675942028987</v>
+      </c>
+      <c r="N23" t="n">
+        <v>96.97598188405796</v>
+      </c>
+      <c r="O23" t="n">
+        <v>66.6336888888889</v>
+      </c>
+      <c r="P23" t="n">
+        <v>66.86501811594204</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>50.77989403036577</v>
+      </c>
+      <c r="R23" t="n">
+        <v>57.04270217391306</v>
       </c>
     </row>
     <row r="24">
@@ -1083,25 +1762,55 @@
         <v>2022</v>
       </c>
       <c r="B24" t="n">
-        <v>72.97028636585068</v>
+        <v>39.60092045454545</v>
       </c>
       <c r="C24" t="n">
-        <v>56.27413084039859</v>
+        <v>50.6010346273292</v>
       </c>
       <c r="D24" t="n">
-        <v>65.76675686143922</v>
+        <v>46.24247754419493</v>
       </c>
       <c r="E24" t="n">
-        <v>67.67341836435925</v>
+        <v>46.77008514492754</v>
       </c>
       <c r="F24" t="n">
-        <v>79.0347807099628</v>
+        <v>50.06016304347826</v>
       </c>
       <c r="G24" t="n">
-        <v>67.39392203369773</v>
+        <v>53.07155652173913</v>
       </c>
       <c r="H24" t="n">
-        <v>62.06446042340014</v>
+        <v>37.05670652173913</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64.96564073498963</v>
+      </c>
+      <c r="J24" t="n">
+        <v>29.91254347826087</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48.69222727272729</v>
+      </c>
+      <c r="L24" t="n">
+        <v>59.16269927536232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>93.50195191511386</v>
+      </c>
+      <c r="N24" t="n">
+        <v>96.96239492753624</v>
+      </c>
+      <c r="O24" t="n">
+        <v>66.64224777777777</v>
+      </c>
+      <c r="P24" t="n">
+        <v>67.55207282608696</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>49.11876309053266</v>
+      </c>
+      <c r="R24" t="n">
+        <v>56.74673913043477</v>
       </c>
     </row>
     <row r="25">
@@ -1109,47 +1818,58 @@
         <v>2023</v>
       </c>
       <c r="B25" t="n">
-        <v>73.11853943958853</v>
+        <v>42.03732558139536</v>
       </c>
       <c r="C25" t="n">
-        <v>56.51026457890907</v>
+        <v>50.6010346273292</v>
       </c>
       <c r="D25" t="n">
-        <v>65.90714972572363</v>
+        <v>46.3401094123268</v>
       </c>
       <c r="E25" t="n">
-        <v>67.77022520653671</v>
+        <v>46.79765036231885</v>
       </c>
       <c r="F25" t="n">
-        <v>79.1030720352464</v>
+        <v>51.09846195652174</v>
       </c>
       <c r="G25" t="n">
-        <v>67.56886680631203</v>
+        <v>53.08610434782609</v>
       </c>
       <c r="H25" t="n">
-        <v>62.13863444300797</v>
+        <v>37.05670652173913</v>
+      </c>
+      <c r="I25" t="n">
+        <v>65.1237531573499</v>
+      </c>
+      <c r="J25" t="n">
+        <v>30.34421894409937</v>
+      </c>
+      <c r="K25" t="n">
+        <v>48.69222727272729</v>
+      </c>
+      <c r="L25" t="n">
+        <v>59.16269927536232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>93.53768224637683</v>
+      </c>
+      <c r="N25" t="n">
+        <v>96.96239492753624</v>
+      </c>
+      <c r="O25" t="n">
+        <v>66.71684777777777</v>
+      </c>
+      <c r="P25" t="n">
+        <v>67.47970398550724</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>48.89083831482527</v>
+      </c>
+      <c r="R25" t="n">
+        <v>56.74673913043477</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
 </file>